--- a/app/data/tests/butter_plan.xlsx
+++ b/app/data/tests/butter_plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="670">
   <si>
     <t xml:space="preserve">Отчет от</t>
   </si>
@@ -44272,10 +44272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ229"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44364,7 +44364,7 @@
         <v>450</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E3" s="26" t="n">
         <v>450</v>
@@ -44462,13 +44462,13 @@
       </c>
       <c r="B5" s="24" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
+        <v>84</v>
       </c>
       <c r="C5" s="25" t="n">
         <v>450</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E5" s="26" t="n">
         <v>450</v>
@@ -44580,7 +44580,7 @@
         <v>306</v>
       </c>
       <c r="E7" s="26" t="n">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="F7" s="27" t="str">
         <f aca="true">IF(H7="","",(INDIRECT("L" &amp; ROW() - 1) - L7))</f>
@@ -44592,7 +44592,7 @@
       </c>
       <c r="I7" s="30" t="n">
         <f aca="true">IF(H7 = "-", -INDIRECT("C" &amp; ROW() - 1),E7)</f>
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="J7" s="29" t="n">
         <f aca="true">IF(H7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I7)))), 0)</f>
@@ -44619,34 +44619,35 @@
       <c r="AMJ7" s="1"/>
     </row>
     <row r="8" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="32" t="str">
         <f aca="true">IF(H8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K8)))))</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="24" t="str">
+        <v/>
+      </c>
+      <c r="B8" s="33" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C8" s="25" t="n">
+        <v>-</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="27" t="n">
+        <f aca="true">IF(H8="","",(INDIRECT("L" &amp; ROW() - 1) - L8))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="28" t="n">
+        <f aca="true">IF(H8 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v>450</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="26" t="n">
-        <v>306</v>
-      </c>
-      <c r="F8" s="27" t="str">
-        <f aca="true">IF(H8="","",(INDIRECT("L" &amp; ROW() - 1) - L8))</f>
-        <v/>
-      </c>
-      <c r="G8" s="28" t="str">
-        <f aca="true">IF(H8 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
+      <c r="H8" s="32" t="s">
+        <v>669</v>
       </c>
       <c r="I8" s="30" t="n">
         <f aca="true">IF(H8 = "-", -INDIRECT("C" &amp; ROW() - 1),E8)</f>
-        <v>306</v>
+        <v>-450</v>
       </c>
       <c r="J8" s="29" t="n">
         <f aca="true">IF(H8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I8)))), 0)</f>
@@ -44654,7 +44655,7 @@
       </c>
       <c r="K8" s="29" t="n">
         <f aca="false">IF(H8="-",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="29" t="n">
         <f aca="true">IF(J8 = 0, INDIRECT("L" &amp; ROW() - 1), J8)</f>
@@ -44673,35 +44674,34 @@
       <c r="AMJ8" s="1"/>
     </row>
     <row r="9" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="23" t="n">
         <f aca="true">IF(H9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K9)))))</f>
-        <v/>
-      </c>
-      <c r="B9" s="33" t="str">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>669</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="27" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>450</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>450</v>
+      </c>
+      <c r="F9" s="27" t="str">
         <f aca="true">IF(H9="","",(INDIRECT("L" &amp; ROW() - 1) - L9))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="28" t="n">
+        <v/>
+      </c>
+      <c r="G9" s="28" t="str">
         <f aca="true">IF(H9 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v>450</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>669</v>
+        <v/>
       </c>
       <c r="I9" s="30" t="n">
         <f aca="true">IF(H9 = "-", -INDIRECT("C" &amp; ROW() - 1),E9)</f>
-        <v>-450</v>
+        <v>450</v>
       </c>
       <c r="J9" s="29" t="n">
         <f aca="true">IF(H9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I9)))), 0)</f>
@@ -44709,7 +44709,7 @@
       </c>
       <c r="K9" s="29" t="n">
         <f aca="false">IF(H9="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="29" t="n">
         <f aca="true">IF(J9 = 0, INDIRECT("L" &amp; ROW() - 1), J9)</f>
@@ -44728,34 +44728,35 @@
       <c r="AMJ9" s="1"/>
     </row>
     <row r="10" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="32" t="str">
         <f aca="true">IF(H10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K10)))))</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="str">
+        <v/>
+      </c>
+      <c r="B10" s="33" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C10" s="25" t="n">
+        <v>-</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="27" t="n">
+        <f aca="true">IF(H10="","",(INDIRECT("L" &amp; ROW() - 1) - L10))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="28" t="n">
+        <f aca="true">IF(H10 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v>450</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="26" t="n">
-        <v>299</v>
-      </c>
-      <c r="F10" s="27" t="str">
-        <f aca="true">IF(H10="","",(INDIRECT("L" &amp; ROW() - 1) - L10))</f>
-        <v/>
-      </c>
-      <c r="G10" s="28" t="str">
-        <f aca="true">IF(H10 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
+      <c r="H10" s="32" t="s">
+        <v>669</v>
       </c>
       <c r="I10" s="30" t="n">
         <f aca="true">IF(H10 = "-", -INDIRECT("C" &amp; ROW() - 1),E10)</f>
-        <v>299</v>
+        <v>-450</v>
       </c>
       <c r="J10" s="29" t="n">
         <f aca="true">IF(H10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I10)))), 0)</f>
@@ -44763,7 +44764,7 @@
       </c>
       <c r="K10" s="29" t="n">
         <f aca="false">IF(H10="-",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="29" t="n">
         <f aca="true">IF(J10 = 0, INDIRECT("L" &amp; ROW() - 1), J10)</f>
@@ -44784,7 +44785,7 @@
     <row r="11" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="n">
         <f aca="true">IF(H11="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K11)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="24" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
@@ -44794,10 +44795,10 @@
         <v>450</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E11" s="26" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="F11" s="27" t="str">
         <f aca="true">IF(H11="","",(INDIRECT("L" &amp; ROW() - 1) - L11))</f>
@@ -44809,7 +44810,7 @@
       </c>
       <c r="I11" s="30" t="n">
         <f aca="true">IF(H11 = "-", -INDIRECT("C" &amp; ROW() - 1),E11)</f>
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="J11" s="29" t="n">
         <f aca="true">IF(H11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I11)))), 0)</f>
@@ -44893,7 +44894,7 @@
     <row r="13" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="n">
         <f aca="true">IF(H13="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K13)))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="24" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
@@ -44903,7 +44904,7 @@
         <v>450</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E13" s="26" t="n">
         <v>450</v>
@@ -45002,17 +45003,17 @@
     <row r="15" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="n">
         <f aca="true">IF(H15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K15)))))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="24" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
+        <v>84</v>
       </c>
       <c r="C15" s="25" t="n">
         <v>450</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E15" s="26" t="n">
         <v>450</v>
@@ -45109,23 +45110,12 @@
       <c r="AMJ16" s="1"/>
     </row>
     <row r="17" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
-        <f aca="true">IF(H17="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K17)))))</f>
-        <v>7</v>
-      </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="28" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C17" s="25" t="n">
-        <v>450</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="26" t="n">
-        <v>450</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="27" t="str">
         <f aca="true">IF(H17="","",(INDIRECT("L" &amp; ROW() - 1) - L17))</f>
         <v/>
@@ -45136,7 +45126,7 @@
       </c>
       <c r="I17" s="30" t="n">
         <f aca="true">IF(H17 = "-", -INDIRECT("C" &amp; ROW() - 1),E17)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J17" s="29" t="n">
         <f aca="true">IF(H17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I17)))), 0)</f>
@@ -45163,35 +45153,23 @@
       <c r="AMJ17" s="1"/>
     </row>
     <row r="18" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="str">
-        <f aca="true">IF(H18="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K18)))))</f>
-        <v/>
-      </c>
-      <c r="B18" s="33" t="str">
+      <c r="B18" s="28" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>669</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C18" s="28"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="27" t="str">
         <f aca="true">IF(H18="","",(INDIRECT("L" &amp; ROW() - 1) - L18))</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="28" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="28" t="str">
         <f aca="true">IF(H18 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v>450</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>669</v>
+        <v/>
       </c>
       <c r="I18" s="30" t="n">
         <f aca="true">IF(H18 = "-", -INDIRECT("C" &amp; ROW() - 1),E18)</f>
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="J18" s="29" t="n">
         <f aca="true">IF(H18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I18)))), 0)</f>
@@ -45199,7 +45177,7 @@
       </c>
       <c r="K18" s="29" t="n">
         <f aca="false">IF(H18="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="29" t="n">
         <f aca="true">IF(J18 = 0, INDIRECT("L" &amp; ROW() - 1), J18)</f>
@@ -45218,23 +45196,12 @@
       <c r="AMJ18" s="1"/>
     </row>
     <row r="19" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
-        <f aca="true">IF(H19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K19)))))</f>
-        <v>8</v>
-      </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="28" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C19" s="25" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="26" t="n">
-        <v>450</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="27" t="str">
         <f aca="true">IF(H19="","",(INDIRECT("L" &amp; ROW() - 1) - L19))</f>
         <v/>
@@ -45245,7 +45212,7 @@
       </c>
       <c r="I19" s="30" t="n">
         <f aca="true">IF(H19 = "-", -INDIRECT("C" &amp; ROW() - 1),E19)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J19" s="29" t="n">
         <f aca="true">IF(H19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I19)))), 0)</f>
@@ -45272,35 +45239,23 @@
       <c r="AMJ19" s="1"/>
     </row>
     <row r="20" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="str">
-        <f aca="true">IF(H20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K20)))))</f>
-        <v/>
-      </c>
-      <c r="B20" s="33" t="str">
+      <c r="B20" s="28" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>669</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C20" s="28"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="27" t="n">
+      <c r="F20" s="27" t="str">
         <f aca="true">IF(H20="","",(INDIRECT("L" &amp; ROW() - 1) - L20))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="28" t="n">
+        <v/>
+      </c>
+      <c r="G20" s="28" t="str">
         <f aca="true">IF(H20 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v>450</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>669</v>
+        <v/>
       </c>
       <c r="I20" s="30" t="n">
         <f aca="true">IF(H20 = "-", -INDIRECT("C" &amp; ROW() - 1),E20)</f>
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="J20" s="29" t="n">
         <f aca="true">IF(H20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I20)))), 0)</f>
@@ -45308,7 +45263,7 @@
       </c>
       <c r="K20" s="29" t="n">
         <f aca="false">IF(H20="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="29" t="n">
         <f aca="true">IF(J20 = 0, INDIRECT("L" &amp; ROW() - 1), J20)</f>
@@ -45327,23 +45282,12 @@
       <c r="AMJ20" s="1"/>
     </row>
     <row r="21" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
-        <f aca="true">IF(H21="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K21)))))</f>
-        <v>9</v>
-      </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="28" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C21" s="25" t="n">
-        <v>450</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E21" s="26" t="n">
-        <v>450</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="27" t="str">
         <f aca="true">IF(H21="","",(INDIRECT("L" &amp; ROW() - 1) - L21))</f>
         <v/>
@@ -45354,7 +45298,7 @@
       </c>
       <c r="I21" s="30" t="n">
         <f aca="true">IF(H21 = "-", -INDIRECT("C" &amp; ROW() - 1),E21)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J21" s="29" t="n">
         <f aca="true">IF(H21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I21)))), 0)</f>
@@ -45381,35 +45325,23 @@
       <c r="AMJ21" s="1"/>
     </row>
     <row r="22" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="str">
-        <f aca="true">IF(H22="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K22)))))</f>
-        <v/>
-      </c>
-      <c r="B22" s="33" t="str">
+      <c r="B22" s="28" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>669</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C22" s="1"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="27" t="n">
+      <c r="F22" s="27" t="str">
         <f aca="true">IF(H22="","",(INDIRECT("L" &amp; ROW() - 1) - L22))</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="28" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="28" t="str">
         <f aca="true">IF(H22 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v>450</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>669</v>
+        <v/>
       </c>
       <c r="I22" s="30" t="n">
         <f aca="true">IF(H22 = "-", -INDIRECT("C" &amp; ROW() - 1),E22)</f>
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="J22" s="29" t="n">
         <f aca="true">IF(H22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I22)))), 0)</f>
@@ -45417,7 +45349,7 @@
       </c>
       <c r="K22" s="29" t="n">
         <f aca="false">IF(H22="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="29" t="n">
         <f aca="true">IF(J22 = 0, INDIRECT("L" &amp; ROW() - 1), J22)</f>
@@ -45436,23 +45368,12 @@
       <c r="AMJ22" s="1"/>
     </row>
     <row r="23" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
-        <f aca="true">IF(H23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K23)))))</f>
-        <v>10</v>
-      </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="28" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>72.5</v>
-      </c>
-      <c r="C23" s="25" t="n">
-        <v>450</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="E23" s="26" t="n">
-        <v>450</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="27" t="str">
         <f aca="true">IF(H23="","",(INDIRECT("L" &amp; ROW() - 1) - L23))</f>
         <v/>
@@ -45463,7 +45384,7 @@
       </c>
       <c r="I23" s="30" t="n">
         <f aca="true">IF(H23 = "-", -INDIRECT("C" &amp; ROW() - 1),E23)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J23" s="29" t="n">
         <f aca="true">IF(H23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I23)))), 0)</f>
@@ -45490,35 +45411,23 @@
       <c r="AMJ23" s="1"/>
     </row>
     <row r="24" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="str">
-        <f aca="true">IF(H24="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(K24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K24)))))</f>
-        <v/>
-      </c>
-      <c r="B24" s="33" t="str">
+      <c r="B24" s="28" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>669</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C24" s="1"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="27" t="n">
+      <c r="F24" s="27" t="str">
         <f aca="true">IF(H24="","",(INDIRECT("L" &amp; ROW() - 1) - L24))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="28" t="n">
+        <v/>
+      </c>
+      <c r="G24" s="28" t="str">
         <f aca="true">IF(H24 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v>450</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>669</v>
+        <v/>
       </c>
       <c r="I24" s="30" t="n">
         <f aca="true">IF(H24 = "-", -INDIRECT("C" &amp; ROW() - 1),E24)</f>
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="J24" s="29" t="n">
         <f aca="true">IF(H24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I24)))), 0)</f>
@@ -45526,7 +45435,7 @@
       </c>
       <c r="K24" s="29" t="n">
         <f aca="false">IF(H24="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="29" t="n">
         <f aca="true">IF(J24 = 0, INDIRECT("L" &amp; ROW() - 1), J24)</f>
@@ -45549,7 +45458,7 @@
         <f aca="false">IF(D25="","",VLOOKUP(D25, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
         <v/>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="1"/>
       <c r="E25" s="35"/>
       <c r="F25" s="27" t="str">
         <f aca="true">IF(H25="","",(INDIRECT("L" &amp; ROW() - 1) - L25))</f>
@@ -45592,7 +45501,7 @@
         <f aca="false">IF(D26="","",VLOOKUP(D26, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
         <v/>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="1"/>
       <c r="E26" s="35"/>
       <c r="F26" s="27" t="str">
         <f aca="true">IF(H26="","",(INDIRECT("L" &amp; ROW() - 1) - L26))</f>
@@ -45635,7 +45544,7 @@
         <f aca="false">IF(D27="","",VLOOKUP(D27, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
         <v/>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="1"/>
       <c r="E27" s="35"/>
       <c r="F27" s="27" t="str">
         <f aca="true">IF(H27="","",(INDIRECT("L" &amp; ROW() - 1) - L27))</f>
@@ -45678,7 +45587,7 @@
         <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
         <v/>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="1"/>
       <c r="E28" s="35"/>
       <c r="F28" s="27" t="str">
         <f aca="true">IF(H28="","",(INDIRECT("L" &amp; ROW() - 1) - L28))</f>
@@ -47370,7 +47279,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="29" t="n">
-        <f aca="true">IF(H67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I67)))), 0)</f>
+        <f aca="true">IF(H67="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I67)))),0)</f>
         <v>0</v>
       </c>
       <c r="K67" s="29" t="n">
@@ -47413,7 +47322,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="29" t="n">
-        <f aca="true">IF(H68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I68)))), 0)</f>
+        <f aca="true">IF(H68="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I68))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I68)))),0)</f>
         <v>0</v>
       </c>
       <c r="K68" s="29" t="n">
@@ -47456,7 +47365,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="29" t="n">
-        <f aca="true">IF(H69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I69)))), 0)</f>
+        <f aca="true">IF(H69="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I69)))),0)</f>
         <v>0</v>
       </c>
       <c r="K69" s="29" t="n">
@@ -47499,7 +47408,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="29" t="n">
-        <f aca="true">IF(H70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I70)))), 0)</f>
+        <f aca="true">IF(H70="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I70))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I70)))),0)</f>
         <v>0</v>
       </c>
       <c r="K70" s="29" t="n">
@@ -47542,7 +47451,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="29" t="n">
-        <f aca="true">IF(H71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I71)))), 0)</f>
+        <f aca="true">IF(H71="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I71)))),0)</f>
         <v>0</v>
       </c>
       <c r="K71" s="29" t="n">
@@ -47585,7 +47494,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="29" t="n">
-        <f aca="true">IF(H72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I72)))), 0)</f>
+        <f aca="true">IF(H72="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I72))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I72)))),0)</f>
         <v>0</v>
       </c>
       <c r="K72" s="29" t="n">
@@ -47628,7 +47537,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="29" t="n">
-        <f aca="true">IF(H73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I73)))), 0)</f>
+        <f aca="true">IF(H73="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I73)))),0)</f>
         <v>0</v>
       </c>
       <c r="K73" s="29" t="n">
@@ -47671,7 +47580,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="29" t="n">
-        <f aca="true">IF(H74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I74)))), 0)</f>
+        <f aca="true">IF(H74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I74)))),0)</f>
         <v>0</v>
       </c>
       <c r="K74" s="29" t="n">
@@ -48488,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="29" t="n">
-        <f aca="true">IF(H93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I93)))),0)</f>
+        <f aca="true">IF(H93 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I93)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I93)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K93" s="29" t="n">
@@ -48531,7 +48440,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="29" t="n">
-        <f aca="true">IF(H94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I94)))),0)</f>
+        <f aca="true">IF(H94 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I94)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I94)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K94" s="29" t="n">
@@ -48574,7 +48483,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="29" t="n">
-        <f aca="true">IF(H95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I95)))),0)</f>
+        <f aca="true">IF(H95 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I95)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I95)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K95" s="29" t="n">
@@ -48617,7 +48526,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="29" t="n">
-        <f aca="true">IF(H96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I96)))),0)</f>
+        <f aca="true">IF(H96 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I96)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I96)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K96" s="29" t="n">
@@ -48660,7 +48569,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="29" t="n">
-        <f aca="true">IF(H97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I97)))),0)</f>
+        <f aca="true">IF(H97 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I97)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I97)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K97" s="29" t="n">
@@ -48703,7 +48612,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="29" t="n">
-        <f aca="true">IF(H98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I98)))),0)</f>
+        <f aca="true">IF(H98 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I98)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I98)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K98" s="29" t="n">
@@ -48746,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="29" t="n">
-        <f aca="true">IF(H99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I99)))),0)</f>
+        <f aca="true">IF(H99 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I99)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I99)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K99" s="29" t="n">
@@ -48789,7 +48698,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="29" t="n">
-        <f aca="true">IF(H100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I100)))),0)</f>
+        <f aca="true">IF(H100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I100)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="29" t="n">
@@ -49465,28 +49374,12 @@
       <c r="C116" s="1"/>
       <c r="E116" s="35"/>
       <c r="F116" s="27" t="str">
-        <f aca="true">IF(H116="","",(INDIRECT("L" &amp; ROW() - 1) - L116))</f>
+        <f aca="true">IF(H116="","",(INDIRECT("N" &amp; ROW() - 1) - L116))</f>
         <v/>
       </c>
       <c r="G116" s="28" t="str">
-        <f aca="true">IF(H116 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I116" s="30" t="n">
-        <f aca="true">IF(H116 = "-", -INDIRECT("C" &amp; ROW() - 1),E116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="29" t="n">
-        <f aca="true">IF(H116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I116)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K116" s="29" t="n">
-        <f aca="false">IF(H116="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L116" s="29" t="n">
-        <f aca="true">IF(J116 = 0, INDIRECT("L" &amp; ROW() - 1), J116)</f>
-        <v>0</v>
+        <f aca="true">IF(H116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P116" s="28" t="str">
         <f aca="true">IF(O116 = "", "", O116 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49508,28 +49401,12 @@
       <c r="C117" s="1"/>
       <c r="E117" s="35"/>
       <c r="F117" s="27" t="str">
-        <f aca="true">IF(H117="","",(INDIRECT("L" &amp; ROW() - 1) - L117))</f>
+        <f aca="true">IF(H117="","",(INDIRECT("N" &amp; ROW() - 1) - L117))</f>
         <v/>
       </c>
       <c r="G117" s="28" t="str">
-        <f aca="true">IF(H117 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I117" s="30" t="n">
-        <f aca="true">IF(H117 = "-", -INDIRECT("C" &amp; ROW() - 1),E117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="29" t="n">
-        <f aca="true">IF(H117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I117)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K117" s="29" t="n">
-        <f aca="false">IF(H117="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="29" t="n">
-        <f aca="true">IF(J117 = 0, INDIRECT("L" &amp; ROW() - 1), J117)</f>
-        <v>0</v>
+        <f aca="true">IF(H117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P117" s="28" t="str">
         <f aca="true">IF(O117 = "", "", O117 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49551,28 +49428,12 @@
       <c r="C118" s="1"/>
       <c r="E118" s="35"/>
       <c r="F118" s="27" t="str">
-        <f aca="true">IF(H118="","",(INDIRECT("L" &amp; ROW() - 1) - L118))</f>
+        <f aca="true">IF(H118="","",(INDIRECT("N" &amp; ROW() - 1) - L118))</f>
         <v/>
       </c>
       <c r="G118" s="28" t="str">
-        <f aca="true">IF(H118 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I118" s="30" t="n">
-        <f aca="true">IF(H118 = "-", -INDIRECT("C" &amp; ROW() - 1),E118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="29" t="n">
-        <f aca="true">IF(H118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I118)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K118" s="29" t="n">
-        <f aca="false">IF(H118="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="29" t="n">
-        <f aca="true">IF(J118 = 0, INDIRECT("L" &amp; ROW() - 1), J118)</f>
-        <v>0</v>
+        <f aca="true">IF(H118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P118" s="28" t="str">
         <f aca="true">IF(O118 = "", "", O118 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49594,28 +49455,12 @@
       <c r="C119" s="1"/>
       <c r="E119" s="35"/>
       <c r="F119" s="27" t="str">
-        <f aca="true">IF(H119="","",(INDIRECT("L" &amp; ROW() - 1) - L119))</f>
+        <f aca="true">IF(H119="","",(INDIRECT("N" &amp; ROW() - 1) - L119))</f>
         <v/>
       </c>
       <c r="G119" s="28" t="str">
-        <f aca="true">IF(H119 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I119" s="30" t="n">
-        <f aca="true">IF(H119 = "-", -INDIRECT("C" &amp; ROW() - 1),E119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="29" t="n">
-        <f aca="true">IF(H119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I119)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K119" s="29" t="n">
-        <f aca="false">IF(H119="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="29" t="n">
-        <f aca="true">IF(J119 = 0, INDIRECT("L" &amp; ROW() - 1), J119)</f>
-        <v>0</v>
+        <f aca="true">IF(H119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P119" s="28" t="str">
         <f aca="true">IF(O119 = "", "", O119 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49637,28 +49482,12 @@
       <c r="C120" s="1"/>
       <c r="E120" s="35"/>
       <c r="F120" s="27" t="str">
-        <f aca="true">IF(H120="","",(INDIRECT("L" &amp; ROW() - 1) - L120))</f>
+        <f aca="true">IF(H120="","",(INDIRECT("N" &amp; ROW() - 1) - L120))</f>
         <v/>
       </c>
       <c r="G120" s="28" t="str">
-        <f aca="true">IF(H120 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I120" s="30" t="n">
-        <f aca="true">IF(H120 = "-", -INDIRECT("C" &amp; ROW() - 1),E120)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="29" t="n">
-        <f aca="true">IF(H120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I120)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K120" s="29" t="n">
-        <f aca="false">IF(H120="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="29" t="n">
-        <f aca="true">IF(J120 = 0, INDIRECT("L" &amp; ROW() - 1), J120)</f>
-        <v>0</v>
+        <f aca="true">IF(H120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P120" s="28" t="str">
         <f aca="true">IF(O120 = "", "", O120 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49680,28 +49509,12 @@
       <c r="C121" s="1"/>
       <c r="E121" s="35"/>
       <c r="F121" s="27" t="str">
-        <f aca="true">IF(H121="","",(INDIRECT("L" &amp; ROW() - 1) - L121))</f>
+        <f aca="true">IF(H121="","",(INDIRECT("N" &amp; ROW() - 1) - L121))</f>
         <v/>
       </c>
       <c r="G121" s="28" t="str">
-        <f aca="true">IF(H121 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I121" s="30" t="n">
-        <f aca="true">IF(H121 = "-", -INDIRECT("C" &amp; ROW() - 1),E121)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="29" t="n">
-        <f aca="true">IF(H121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I121)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K121" s="29" t="n">
-        <f aca="false">IF(H121="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="29" t="n">
-        <f aca="true">IF(J121 = 0, INDIRECT("L" &amp; ROW() - 1), J121)</f>
-        <v>0</v>
+        <f aca="true">IF(H121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P121" s="28" t="str">
         <f aca="true">IF(O121 = "", "", O121 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49723,28 +49536,12 @@
       <c r="C122" s="1"/>
       <c r="E122" s="35"/>
       <c r="F122" s="27" t="str">
-        <f aca="true">IF(H122="","",(INDIRECT("L" &amp; ROW() - 1) - L122))</f>
+        <f aca="true">IF(H122="","",(INDIRECT("N" &amp; ROW() - 1) - L122))</f>
         <v/>
       </c>
       <c r="G122" s="28" t="str">
-        <f aca="true">IF(H122 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I122" s="30" t="n">
-        <f aca="true">IF(H122 = "-", -INDIRECT("C" &amp; ROW() - 1),E122)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="29" t="n">
-        <f aca="true">IF(H122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I122)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="29" t="n">
-        <f aca="false">IF(H122="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="29" t="n">
-        <f aca="true">IF(J122 = 0, INDIRECT("L" &amp; ROW() - 1), J122)</f>
-        <v>0</v>
+        <f aca="true">IF(H122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P122" s="28" t="str">
         <f aca="true">IF(O122 = "", "", O122 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49766,28 +49563,12 @@
       <c r="C123" s="1"/>
       <c r="E123" s="35"/>
       <c r="F123" s="27" t="str">
-        <f aca="true">IF(H123="","",(INDIRECT("L" &amp; ROW() - 1) - L123))</f>
+        <f aca="true">IF(H123="","",(INDIRECT("N" &amp; ROW() - 1) - L123))</f>
         <v/>
       </c>
       <c r="G123" s="28" t="str">
-        <f aca="true">IF(H123 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I123" s="30" t="n">
-        <f aca="true">IF(H123 = "-", -INDIRECT("C" &amp; ROW() - 1),E123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="29" t="n">
-        <f aca="true">IF(H123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I123)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="29" t="n">
-        <f aca="false">IF(H123="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="29" t="n">
-        <f aca="true">IF(J123 = 0, INDIRECT("L" &amp; ROW() - 1), J123)</f>
-        <v>0</v>
+        <f aca="true">IF(H123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P123" s="28" t="str">
         <f aca="true">IF(O123 = "", "", O123 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -50449,221 +50230,165 @@
       <c r="AMI147" s="1"/>
       <c r="AMJ147" s="1"/>
     </row>
-    <row r="148" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="28" t="str">
-        <f aca="false">IF(D148="","",VLOOKUP(D148, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C148" s="1"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="36"/>
       <c r="E148" s="35"/>
-      <c r="F148" s="27" t="str">
+      <c r="F148" s="37" t="str">
         <f aca="true">IF(H148="","",(INDIRECT("N" &amp; ROW() - 1) - L148))</f>
         <v/>
       </c>
-      <c r="G148" s="28" t="str">
+      <c r="G148" s="38" t="str">
         <f aca="true">IF(H148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P148" s="28" t="str">
+      <c r="P148" s="36" t="str">
         <f aca="true">IF(O148 = "", "", O148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q148" s="28" t="str">
+      <c r="Q148" s="36" t="str">
         <f aca="true">IF(H148="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH148" s="1"/>
-      <c r="AMI148" s="1"/>
-      <c r="AMJ148" s="1"/>
-    </row>
-    <row r="149" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="28" t="str">
-        <f aca="false">IF(D149="","",VLOOKUP(D149, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C149" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="36"/>
       <c r="E149" s="35"/>
-      <c r="F149" s="27" t="str">
+      <c r="F149" s="37" t="str">
         <f aca="true">IF(H149="","",(INDIRECT("N" &amp; ROW() - 1) - L149))</f>
         <v/>
       </c>
-      <c r="G149" s="28" t="str">
+      <c r="G149" s="38" t="str">
         <f aca="true">IF(H149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P149" s="28" t="str">
+      <c r="P149" s="36" t="str">
         <f aca="true">IF(O149 = "", "", O149 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q149" s="28" t="str">
+      <c r="Q149" s="36" t="str">
         <f aca="true">IF(H149="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH149" s="1"/>
-      <c r="AMI149" s="1"/>
-      <c r="AMJ149" s="1"/>
-    </row>
-    <row r="150" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="28" t="str">
-        <f aca="false">IF(D150="","",VLOOKUP(D150, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C150" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="36"/>
       <c r="E150" s="35"/>
-      <c r="F150" s="27" t="str">
+      <c r="F150" s="37" t="str">
         <f aca="true">IF(H150="","",(INDIRECT("N" &amp; ROW() - 1) - L150))</f>
         <v/>
       </c>
-      <c r="G150" s="28" t="str">
+      <c r="G150" s="38" t="str">
         <f aca="true">IF(H150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P150" s="28" t="str">
+      <c r="P150" s="36" t="str">
         <f aca="true">IF(O150 = "", "", O150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q150" s="28" t="str">
+      <c r="Q150" s="36" t="str">
         <f aca="true">IF(H150="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH150" s="1"/>
-      <c r="AMI150" s="1"/>
-      <c r="AMJ150" s="1"/>
-    </row>
-    <row r="151" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="28" t="str">
-        <f aca="false">IF(D151="","",VLOOKUP(D151, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C151" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="36"/>
       <c r="E151" s="35"/>
-      <c r="F151" s="27" t="str">
+      <c r="F151" s="37" t="str">
         <f aca="true">IF(H151="","",(INDIRECT("N" &amp; ROW() - 1) - L151))</f>
         <v/>
       </c>
-      <c r="G151" s="28" t="str">
+      <c r="G151" s="38" t="str">
         <f aca="true">IF(H151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P151" s="28" t="str">
+      <c r="P151" s="36" t="str">
         <f aca="true">IF(O151 = "", "", O151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q151" s="28" t="str">
+      <c r="Q151" s="36" t="str">
         <f aca="true">IF(H151="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH151" s="1"/>
-      <c r="AMI151" s="1"/>
-      <c r="AMJ151" s="1"/>
-    </row>
-    <row r="152" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="28" t="str">
-        <f aca="false">IF(D152="","",VLOOKUP(D152, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C152" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="36"/>
       <c r="E152" s="35"/>
-      <c r="F152" s="27" t="str">
+      <c r="F152" s="37" t="str">
         <f aca="true">IF(H152="","",(INDIRECT("N" &amp; ROW() - 1) - L152))</f>
         <v/>
       </c>
-      <c r="G152" s="28" t="str">
+      <c r="G152" s="38" t="str">
         <f aca="true">IF(H152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P152" s="28" t="str">
+      <c r="P152" s="36" t="str">
         <f aca="true">IF(O152 = "", "", O152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q152" s="28" t="str">
+      <c r="Q152" s="36" t="str">
         <f aca="true">IF(H152="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH152" s="1"/>
-      <c r="AMI152" s="1"/>
-      <c r="AMJ152" s="1"/>
-    </row>
-    <row r="153" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="28" t="str">
-        <f aca="false">IF(D153="","",VLOOKUP(D153, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C153" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="36"/>
       <c r="E153" s="35"/>
-      <c r="F153" s="27" t="str">
+      <c r="F153" s="37" t="str">
         <f aca="true">IF(H153="","",(INDIRECT("N" &amp; ROW() - 1) - L153))</f>
         <v/>
       </c>
-      <c r="G153" s="28" t="str">
+      <c r="G153" s="38" t="str">
         <f aca="true">IF(H153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P153" s="28" t="str">
+      <c r="P153" s="36" t="str">
         <f aca="true">IF(O153 = "", "", O153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q153" s="28" t="str">
+      <c r="Q153" s="36" t="str">
         <f aca="true">IF(H153="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH153" s="1"/>
-      <c r="AMI153" s="1"/>
-      <c r="AMJ153" s="1"/>
-    </row>
-    <row r="154" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="28" t="str">
-        <f aca="false">IF(D154="","",VLOOKUP(D154, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C154" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="36"/>
       <c r="E154" s="35"/>
-      <c r="F154" s="27" t="str">
+      <c r="F154" s="37" t="str">
         <f aca="true">IF(H154="","",(INDIRECT("N" &amp; ROW() - 1) - L154))</f>
         <v/>
       </c>
-      <c r="G154" s="28" t="str">
+      <c r="G154" s="38" t="str">
         <f aca="true">IF(H154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P154" s="28" t="str">
+      <c r="P154" s="36" t="str">
         <f aca="true">IF(O154 = "", "", O154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q154" s="28" t="str">
+      <c r="Q154" s="36" t="str">
         <f aca="true">IF(H154="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH154" s="1"/>
-      <c r="AMI154" s="1"/>
-      <c r="AMJ154" s="1"/>
-    </row>
-    <row r="155" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="28" t="str">
-        <f aca="false">IF(D155="","",VLOOKUP(D155, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C155" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="36"/>
       <c r="E155" s="35"/>
-      <c r="F155" s="27" t="str">
+      <c r="F155" s="37" t="str">
         <f aca="true">IF(H155="","",(INDIRECT("N" &amp; ROW() - 1) - L155))</f>
         <v/>
       </c>
-      <c r="G155" s="28" t="str">
+      <c r="G155" s="38" t="str">
         <f aca="true">IF(H155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P155" s="28" t="str">
+      <c r="P155" s="36" t="str">
         <f aca="true">IF(O155 = "", "", O155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q155" s="28" t="str">
+      <c r="Q155" s="36" t="str">
         <f aca="true">IF(H155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH155" s="1"/>
-      <c r="AMI155" s="1"/>
-      <c r="AMJ155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="36"/>
@@ -50712,10 +50437,6 @@
         <f aca="true">IF(H158="","",(INDIRECT("N" &amp; ROW() - 1) - L158))</f>
         <v/>
       </c>
-      <c r="G158" s="38" t="str">
-        <f aca="true">IF(H158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P158" s="36" t="str">
         <f aca="true">IF(O158 = "", "", O158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50732,10 +50453,6 @@
         <f aca="true">IF(H159="","",(INDIRECT("N" &amp; ROW() - 1) - L159))</f>
         <v/>
       </c>
-      <c r="G159" s="38" t="str">
-        <f aca="true">IF(H159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P159" s="36" t="str">
         <f aca="true">IF(O159 = "", "", O159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50752,10 +50469,6 @@
         <f aca="true">IF(H160="","",(INDIRECT("N" &amp; ROW() - 1) - L160))</f>
         <v/>
       </c>
-      <c r="G160" s="38" t="str">
-        <f aca="true">IF(H160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P160" s="36" t="str">
         <f aca="true">IF(O160 = "", "", O160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50772,10 +50485,6 @@
         <f aca="true">IF(H161="","",(INDIRECT("N" &amp; ROW() - 1) - L161))</f>
         <v/>
       </c>
-      <c r="G161" s="38" t="str">
-        <f aca="true">IF(H161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P161" s="36" t="str">
         <f aca="true">IF(O161 = "", "", O161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50792,10 +50501,6 @@
         <f aca="true">IF(H162="","",(INDIRECT("N" &amp; ROW() - 1) - L162))</f>
         <v/>
       </c>
-      <c r="G162" s="38" t="str">
-        <f aca="true">IF(H162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P162" s="36" t="str">
         <f aca="true">IF(O162 = "", "", O162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50812,10 +50517,6 @@
         <f aca="true">IF(H163="","",(INDIRECT("N" &amp; ROW() - 1) - L163))</f>
         <v/>
       </c>
-      <c r="G163" s="38" t="str">
-        <f aca="true">IF(H163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P163" s="36" t="str">
         <f aca="true">IF(O163 = "", "", O163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50832,10 +50533,6 @@
         <f aca="true">IF(H164="","",(INDIRECT("N" &amp; ROW() - 1) - L164))</f>
         <v/>
       </c>
-      <c r="G164" s="38" t="str">
-        <f aca="true">IF(H164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P164" s="36" t="str">
         <f aca="true">IF(O164 = "", "", O164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -50852,10 +50549,6 @@
         <f aca="true">IF(H165="","",(INDIRECT("N" &amp; ROW() - 1) - L165))</f>
         <v/>
       </c>
-      <c r="G165" s="38" t="str">
-        <f aca="true">IF(H165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P165" s="36" t="str">
         <f aca="true">IF(O165 = "", "", O165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -51048,10 +50741,7 @@
         <f aca="true">IF(H177="","",(INDIRECT("N" &amp; ROW() - 1) - L177))</f>
         <v/>
       </c>
-      <c r="P177" s="36" t="str">
-        <f aca="true">IF(O177 = "", "", O177 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P177" s="36"/>
       <c r="Q177" s="36" t="str">
         <f aca="true">IF(H177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51064,10 +50754,7 @@
         <f aca="true">IF(H178="","",(INDIRECT("N" &amp; ROW() - 1) - L178))</f>
         <v/>
       </c>
-      <c r="P178" s="36" t="str">
-        <f aca="true">IF(O178 = "", "", O178 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P178" s="36"/>
       <c r="Q178" s="36" t="str">
         <f aca="true">IF(H178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51080,10 +50767,7 @@
         <f aca="true">IF(H179="","",(INDIRECT("N" &amp; ROW() - 1) - L179))</f>
         <v/>
       </c>
-      <c r="P179" s="36" t="str">
-        <f aca="true">IF(O179 = "", "", O179 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P179" s="36"/>
       <c r="Q179" s="36" t="str">
         <f aca="true">IF(H179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51096,10 +50780,7 @@
         <f aca="true">IF(H180="","",(INDIRECT("N" &amp; ROW() - 1) - L180))</f>
         <v/>
       </c>
-      <c r="P180" s="36" t="str">
-        <f aca="true">IF(O180 = "", "", O180 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P180" s="36"/>
       <c r="Q180" s="36" t="str">
         <f aca="true">IF(H180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51112,10 +50793,7 @@
         <f aca="true">IF(H181="","",(INDIRECT("N" &amp; ROW() - 1) - L181))</f>
         <v/>
       </c>
-      <c r="P181" s="36" t="str">
-        <f aca="true">IF(O181 = "", "", O181 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P181" s="36"/>
       <c r="Q181" s="36" t="str">
         <f aca="true">IF(H181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51128,10 +50806,7 @@
         <f aca="true">IF(H182="","",(INDIRECT("N" &amp; ROW() - 1) - L182))</f>
         <v/>
       </c>
-      <c r="P182" s="36" t="str">
-        <f aca="true">IF(O182 = "", "", O182 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P182" s="36"/>
       <c r="Q182" s="36" t="str">
         <f aca="true">IF(H182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51144,10 +50819,7 @@
         <f aca="true">IF(H183="","",(INDIRECT("N" &amp; ROW() - 1) - L183))</f>
         <v/>
       </c>
-      <c r="P183" s="36" t="str">
-        <f aca="true">IF(O183 = "", "", O183 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P183" s="36"/>
       <c r="Q183" s="36" t="str">
         <f aca="true">IF(H183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51160,10 +50832,7 @@
         <f aca="true">IF(H184="","",(INDIRECT("N" &amp; ROW() - 1) - L184))</f>
         <v/>
       </c>
-      <c r="P184" s="36" t="str">
-        <f aca="true">IF(O184 = "", "", O184 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P184" s="36"/>
       <c r="Q184" s="36" t="str">
         <f aca="true">IF(H184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -51237,10 +50906,7 @@
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="36"/>
       <c r="E190" s="35"/>
-      <c r="F190" s="37" t="str">
-        <f aca="true">IF(H190="","",(INDIRECT("N" &amp; ROW() - 1) - L190))</f>
-        <v/>
-      </c>
+      <c r="F190" s="39"/>
       <c r="P190" s="36"/>
       <c r="Q190" s="36" t="str">
         <f aca="true">IF(H190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51250,10 +50916,7 @@
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="36"/>
       <c r="E191" s="35"/>
-      <c r="F191" s="37" t="str">
-        <f aca="true">IF(H191="","",(INDIRECT("N" &amp; ROW() - 1) - L191))</f>
-        <v/>
-      </c>
+      <c r="F191" s="39"/>
       <c r="P191" s="36"/>
       <c r="Q191" s="36" t="str">
         <f aca="true">IF(H191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51263,10 +50926,7 @@
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="36"/>
       <c r="E192" s="35"/>
-      <c r="F192" s="37" t="str">
-        <f aca="true">IF(H192="","",(INDIRECT("N" &amp; ROW() - 1) - L192))</f>
-        <v/>
-      </c>
+      <c r="F192" s="39"/>
       <c r="P192" s="36"/>
       <c r="Q192" s="36" t="str">
         <f aca="true">IF(H192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51276,10 +50936,7 @@
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="36"/>
       <c r="E193" s="35"/>
-      <c r="F193" s="37" t="str">
-        <f aca="true">IF(H193="","",(INDIRECT("N" &amp; ROW() - 1) - L193))</f>
-        <v/>
-      </c>
+      <c r="F193" s="39"/>
       <c r="P193" s="36"/>
       <c r="Q193" s="36" t="str">
         <f aca="true">IF(H193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51289,10 +50946,7 @@
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="36"/>
       <c r="E194" s="35"/>
-      <c r="F194" s="37" t="str">
-        <f aca="true">IF(H194="","",(INDIRECT("N" &amp; ROW() - 1) - L194))</f>
-        <v/>
-      </c>
+      <c r="F194" s="39"/>
       <c r="P194" s="36"/>
       <c r="Q194" s="36" t="str">
         <f aca="true">IF(H194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51302,10 +50956,7 @@
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="36"/>
       <c r="E195" s="35"/>
-      <c r="F195" s="37" t="str">
-        <f aca="true">IF(H195="","",(INDIRECT("N" &amp; ROW() - 1) - L195))</f>
-        <v/>
-      </c>
+      <c r="F195" s="39"/>
       <c r="P195" s="36"/>
       <c r="Q195" s="36" t="str">
         <f aca="true">IF(H195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51315,10 +50966,7 @@
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="36"/>
       <c r="E196" s="35"/>
-      <c r="F196" s="37" t="str">
-        <f aca="true">IF(H196="","",(INDIRECT("N" &amp; ROW() - 1) - L196))</f>
-        <v/>
-      </c>
+      <c r="F196" s="39"/>
       <c r="P196" s="36"/>
       <c r="Q196" s="36" t="str">
         <f aca="true">IF(H196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51328,10 +50976,7 @@
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="36"/>
       <c r="E197" s="35"/>
-      <c r="F197" s="37" t="str">
-        <f aca="true">IF(H197="","",(INDIRECT("N" &amp; ROW() - 1) - L197))</f>
-        <v/>
-      </c>
+      <c r="F197" s="39"/>
       <c r="P197" s="36"/>
       <c r="Q197" s="36" t="str">
         <f aca="true">IF(H197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51381,7 +51026,6 @@
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="36"/>
       <c r="E202" s="35"/>
-      <c r="F202" s="39"/>
       <c r="P202" s="36"/>
       <c r="Q202" s="36" t="str">
         <f aca="true">IF(H202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51391,7 +51035,6 @@
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="36"/>
       <c r="E203" s="35"/>
-      <c r="F203" s="39"/>
       <c r="P203" s="36"/>
       <c r="Q203" s="36" t="str">
         <f aca="true">IF(H203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51401,7 +51044,6 @@
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="36"/>
       <c r="E204" s="35"/>
-      <c r="F204" s="39"/>
       <c r="P204" s="36"/>
       <c r="Q204" s="36" t="str">
         <f aca="true">IF(H204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51411,7 +51053,6 @@
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="36"/>
       <c r="E205" s="35"/>
-      <c r="F205" s="39"/>
       <c r="P205" s="36"/>
       <c r="Q205" s="36" t="str">
         <f aca="true">IF(H205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51421,7 +51062,6 @@
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="36"/>
       <c r="E206" s="35"/>
-      <c r="F206" s="39"/>
       <c r="P206" s="36"/>
       <c r="Q206" s="36" t="str">
         <f aca="true">IF(H206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51431,7 +51071,6 @@
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="36"/>
       <c r="E207" s="35"/>
-      <c r="F207" s="39"/>
       <c r="P207" s="36"/>
       <c r="Q207" s="36" t="str">
         <f aca="true">IF(H207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51441,7 +51080,6 @@
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="36"/>
       <c r="E208" s="35"/>
-      <c r="F208" s="39"/>
       <c r="P208" s="36"/>
       <c r="Q208" s="36" t="str">
         <f aca="true">IF(H208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51451,7 +51089,6 @@
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="36"/>
       <c r="E209" s="35"/>
-      <c r="F209" s="39"/>
       <c r="P209" s="36"/>
       <c r="Q209" s="36" t="str">
         <f aca="true">IF(H209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -51566,78 +51203,14 @@
         <v/>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="36"/>
-      <c r="E222" s="35"/>
-      <c r="P222" s="36"/>
-      <c r="Q222" s="36" t="str">
-        <f aca="true">IF(H222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="36"/>
-      <c r="E223" s="35"/>
-      <c r="P223" s="36"/>
-      <c r="Q223" s="36" t="str">
-        <f aca="true">IF(H223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="36"/>
-      <c r="E224" s="35"/>
-      <c r="P224" s="36"/>
-      <c r="Q224" s="36" t="str">
-        <f aca="true">IF(H224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="36"/>
-      <c r="E225" s="35"/>
-      <c r="P225" s="36"/>
-      <c r="Q225" s="36" t="str">
-        <f aca="true">IF(H225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="36"/>
-      <c r="E226" s="35"/>
-      <c r="P226" s="36"/>
-      <c r="Q226" s="36" t="str">
-        <f aca="true">IF(H226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="36"/>
-      <c r="E227" s="35"/>
-      <c r="P227" s="36"/>
-      <c r="Q227" s="36" t="str">
-        <f aca="true">IF(H227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="36"/>
-      <c r="E228" s="35"/>
-      <c r="P228" s="36"/>
-      <c r="Q228" s="36" t="str">
-        <f aca="true">IF(H228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="36"/>
-      <c r="E229" s="35"/>
-      <c r="P229" s="36"/>
-      <c r="Q229" s="36" t="str">
-        <f aca="true">IF(H229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
@@ -51653,10 +51226,10 @@
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>SUMIF(F3:F123,"&gt;0")-SUMIF(F3:F123,"&lt;0") &gt; 1</formula>
+      <formula>SUMIF(F3:F115,"&gt;0")-SUMIF(F3:F115,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F197">
+  <conditionalFormatting sqref="F3:F189">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(IF(G3="",0, F3)  &gt;= - 0.05* IF(G3="",0,G3), IF(G3="",0, F3) &lt; 0)</formula>
     </cfRule>
@@ -51680,11 +51253,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D100" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D92" type="list">
       <formula1>'SKU Масло'!$A$1:$A$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B155" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B147" type="list">
       <formula1>'SKU Масло'!$B$1:$B$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
